--- a/Checks.xlsx
+++ b/Checks.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowWidth="19200" windowHeight="6800"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="ДЗ Версия 1" sheetId="1" r:id="rId1"/>
+    <sheet name="ДЗ Версия 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
+  <si>
+    <t>Группа проверок/модуль</t>
+  </si>
   <si>
     <t>Проверка</t>
   </si>
@@ -38,121 +42,156 @@
     <t>Результат</t>
   </si>
   <si>
-    <t>Проверить, доступна ли страница входа и отображается ли она корректно</t>
+    <t>Интерфейс приложения</t>
+  </si>
+  <si>
+    <t>1. Отображение страницы входа</t>
   </si>
   <si>
     <t>High</t>
   </si>
   <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Проверить, отображается ввод логина/пароля в полях ввода</t>
+    <t xml:space="preserve">Pass
+</t>
+  </si>
+  <si>
+    <t>2. Отображение полей для ввода пароля и логина</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>3. Приложение сворачивается/разворачивается, оставаясь на том же экране</t>
+  </si>
+  <si>
+    <t>4. Работа приложения на разных языках</t>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Проверить, принимает ли форма входа корректные и неправильные учетные данные</t>
-  </si>
-  <si>
-    <t>Проверить, как форма входа обрабатывает ошибки (например, неправильное имя пользователя, неправильный пароль)</t>
-  </si>
-  <si>
-    <t>Проверить, правильно ли форма входа перенаправляет пользователя на страницу после успешного входа</t>
-  </si>
-  <si>
-    <t>Проверить, правильно ли форма входа выходит пользователя из системы</t>
-  </si>
-  <si>
-    <t>Проверить, как форма входа обрабатывает множественные попытки входа</t>
-  </si>
-  <si>
-    <t>Проверить корректность отображение приложения при разной ориентации</t>
-  </si>
-  <si>
-    <t>Проверить корректность отображение приложения при светлой теме</t>
-  </si>
-  <si>
-    <t>Проверить корректность отображение приложения при темной теме</t>
-  </si>
-  <si>
-    <t>Проверить корректность отображение приложения при разных языках</t>
-  </si>
-  <si>
-    <t>Проверить переход в "Новости" из "Главная"</t>
-  </si>
-  <si>
-    <t>Проверить переход в "Новости" из "О приложении"</t>
-  </si>
-  <si>
-    <t>Проверить переход в "Главная" из "Новости"</t>
-  </si>
-  <si>
-    <t>Проверить переход в "О приложении" из "Новости"</t>
-  </si>
-  <si>
-    <t>Проверить, что приложение осталось на том же экране при сворачивании/разворачивание его</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Проверить на экране "Главная" скрытие/раскрытие новостей</t>
-  </si>
-  <si>
-    <t>Проверить на экране "Главная" скрытие/раскрытие "Новости"</t>
-  </si>
-  <si>
-    <t>Проверить на экране "Главная" переход в раздел "Новости" через "Все новости"</t>
-  </si>
-  <si>
-    <t>Проверить на форме "Создание новости" создание новости с незаполненными полями</t>
-  </si>
-  <si>
-    <t>Проверить на форме "Создание новости" создание новости с заполненными полями</t>
-  </si>
-  <si>
-    <t>Проверить на форме "Создание новости" обязательность ввода для полей "Категория", "Заголовок", "Дата публикации", "Время", "Описание"</t>
-  </si>
-  <si>
-    <t>Проверить на форме "Создание новости" исчезновение валидации после вводы текста в поле, например, "Категория"</t>
-  </si>
-  <si>
-    <t>Проверить на форме "Создание новости" валидацию поля "Заголовок"</t>
-  </si>
-  <si>
-    <t>Проверить на форме "Редактирование новости" сохранение без изменений</t>
-  </si>
-  <si>
-    <t>Проверить на форме "Редактирование новости" сохранение после изменений</t>
-  </si>
-  <si>
-    <t>Проверить на форме "Редактирование новости" отмену без изменений</t>
-  </si>
-  <si>
-    <t>Проверить на форме "Редактирование новости" отмену с изменений</t>
-  </si>
-  <si>
-    <t>Проверить на экране "Новости" удаление новости</t>
-  </si>
-  <si>
-    <t>Проверить на экране "Новости" сортировку списка новостей</t>
-  </si>
-  <si>
-    <t>Проверить на экране "Новости" фильтрацию новостей по категории</t>
-  </si>
-  <si>
-    <t>Проверить на экране "Новости" фильтрацию новостей по дате и времени публикации</t>
-  </si>
-  <si>
-    <t>Проверить на экране "О приложении" переход по ссылке политика конфиденциальности</t>
-  </si>
-  <si>
-    <t>Проверить на экране "О приложении" переход по ссылке пользовательского соглашения</t>
+    <t>5. Работа приложения при разной ориентации экрана</t>
+  </si>
+  <si>
+    <t>6. Работа приложения при светлой/темной теме</t>
+  </si>
+  <si>
+    <t>7. Появление сообщения об ошибке (например, при неправильном имени пользователя, пароле)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авторизация
+</t>
+  </si>
+  <si>
+    <t>1. Авторизация под валидными данными</t>
+  </si>
+  <si>
+    <t>2. Авторизация под невалидными данными</t>
+  </si>
+  <si>
+    <t>3. Авторизация при пустых полях "Поле" и "Логин"</t>
+  </si>
+  <si>
+    <t>4. Выход из учетной записи</t>
+  </si>
+  <si>
+    <t>5. Форма входа перенаправляет пользователя на страницу после успешного входа</t>
+  </si>
+  <si>
+    <t>6. Обработка формой входа множественных попыток входа  под невалидными данными</t>
+  </si>
+  <si>
+    <t>Вкладка "Главная"</t>
+  </si>
+  <si>
+    <t>1. Переход из "Главная" в "Новости"</t>
+  </si>
+  <si>
+    <t>2. Скрытие/раскрытие новостей на вкладке "Главная"</t>
+  </si>
+  <si>
+    <t>3. Переход во вкладку "О приложении" через меню навигации</t>
+  </si>
+  <si>
+    <t>4. Переход во вкладку "Цитаты"</t>
+  </si>
+  <si>
+    <t>5. Переход во вкладку "Новости" через меню навигации</t>
+  </si>
+  <si>
+    <t>Вкладка "Новости"</t>
+  </si>
+  <si>
+    <t>1. Фильтрация новостей по критериям: категория, дата публикации, время</t>
+  </si>
+  <si>
+    <t>2. Сброс фильтра</t>
+  </si>
+  <si>
+    <t>3. Переход из "Новости" в "Главная"</t>
+  </si>
+  <si>
+    <t>4. Переход из "Новости" в "О приложении"</t>
+  </si>
+  <si>
+    <t>Вкладка "О приложении"</t>
+  </si>
+  <si>
+    <t>1. Переход по ссылке "Пользовательское соглашение"</t>
+  </si>
+  <si>
+    <t>2. Переход по ссылке "Политика конфиденциальности"</t>
+  </si>
+  <si>
+    <t>3. Переход в "Новости" из "О приложении"</t>
+  </si>
+  <si>
+    <t>Вкладка "Панель управления"</t>
+  </si>
+  <si>
+    <t>1. Создание новости с заполненными полями</t>
+  </si>
+  <si>
+    <t>2. Создание новости с незаполненными полями</t>
+  </si>
+  <si>
+    <t>3. Обязательность ввода для полей "Категория", "Заголовок", "Дата публикации", "Время" на форме "Создание новости"</t>
+  </si>
+  <si>
+    <t>4. Валидация полей "Категория", "Заголовок", "Дата публикации", "Время" на форме "Создание новости"</t>
+  </si>
+  <si>
+    <t>5. Сохранение без изменений на форме "Редактирование новости"</t>
+  </si>
+  <si>
+    <t>6. Сохранение после изменений на форме "Редактирование новости"</t>
+  </si>
+  <si>
+    <t>7. Отмена без изменений на форме "Редактирование новости"</t>
+  </si>
+  <si>
+    <t>8. Отмена с изменениями на форме "Редактирование новости"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Удаление новости </t>
+  </si>
+  <si>
+    <t>10. Смена статуса у новости</t>
+  </si>
+  <si>
+    <t>Вкладка "Цитаты"</t>
+  </si>
+  <si>
+    <t>1. Разворачивание цитаты</t>
+  </si>
+  <si>
+    <t>2. Сворачивание цитаты</t>
+  </si>
+  <si>
+    <t>3. Пролистывание цитаты</t>
   </si>
 </sst>
 </file>
@@ -165,18 +204,31 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -184,7 +236,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -192,14 +244,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -207,7 +259,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -215,7 +267,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -223,7 +275,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -231,7 +283,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -239,14 +291,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -254,7 +306,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -262,7 +314,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -270,14 +322,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -285,47 +337,47 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,19 +386,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEC5B5B"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -547,8 +605,186 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -660,31 +896,20 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,148 +918,219 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1103,11 +1399,6 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <mruColors>
-      <color rgb="00EC5B5B"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1117,116 +1408,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1373,407 +1604,703 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C35"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="78.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="17.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="14"/>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="24"/>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="16" customHeight="1" spans="1:4">
+      <c r="A13" s="24"/>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="14" customHeight="1" spans="1:4">
+      <c r="A14" s="24"/>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="14" customHeight="1" spans="1:4">
+      <c r="A15" s="24"/>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="14" customHeight="1" spans="1:4">
+      <c r="A16" s="24"/>
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="14" customHeight="1" spans="1:4">
+      <c r="A17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="14"/>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="14"/>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="14"/>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="14"/>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="14"/>
+      <c r="B23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="14"/>
+      <c r="B24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="32"/>
+      <c r="B30" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="32"/>
+      <c r="B31" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="32"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="32"/>
+      <c r="B33" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="32"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="32"/>
+      <c r="B35" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="32"/>
+      <c r="B36" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="32"/>
+      <c r="B37" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:4">
+      <c r="A38" s="32"/>
+      <c r="B38" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:4">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:4">
+      <c r="A40" s="32"/>
+      <c r="B40" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:4">
+      <c r="A41" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="19"/>
+      <c r="B42" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="19"/>
+      <c r="B43" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C30;C35:C43">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="20.6" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="12.6272727272727" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="123.890909090909" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.3363636363636" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.89090909090909" style="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="29.7545454545455" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A15" s="8"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:3">
-      <c r="A25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:3">
-      <c r="A26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:3">
-      <c r="A28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:3">
-      <c r="A30" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:3">
-      <c r="A31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:3">
-      <c r="A33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:3">
-      <c r="A34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A20"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C21">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
